--- a/Költségvetési táblázat (végleges).xlsx
+++ b/Költségvetési táblázat (végleges).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feljegyzés" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Nyomtató</t>
   </si>
   <si>
-    <t>Interaktí tábla</t>
-  </si>
-  <si>
     <t>Számítógép</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>Accespoint</t>
-  </si>
-  <si>
     <t>Rack szekrény</t>
   </si>
   <si>
@@ -205,6 +199,12 @@
   </si>
   <si>
     <t>7.211.867 Ft.</t>
+  </si>
+  <si>
+    <t>Interaktív tábla</t>
+  </si>
+  <si>
+    <t>Accesspoint</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,38 +730,38 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -778,24 +778,24 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
@@ -812,24 +812,24 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>24</v>
@@ -838,15 +838,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
@@ -872,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
@@ -880,19 +880,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
